--- a/data/trans_camb/P25_12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_12-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>12,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 13,94</t>
+          <t>-11,37; 16,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 12,99</t>
+          <t>-8,71; 22,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 13,61</t>
+          <t>-8,72; 31,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 7,38</t>
+          <t>-5,24; 29,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 10,82</t>
+          <t>-17,48; 13,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 7,65</t>
+          <t>-17,81; 17,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 22,27</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 15,15</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 19,54</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>107,73%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>74,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>130,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,56%</t>
+          <t>59,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>-6,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>51,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39,61%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 539,44</t>
+          <t>-71,39; 380,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 531,6</t>
+          <t>-53,52; 486,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 105,42</t>
+          <t>-41,14; 694,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 56,52</t>
+          <t>-21,16; 238,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 122,75</t>
+          <t>-58,45; 109,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,6; 83,79</t>
+          <t>-57,93; 131,88</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-14,4; 215,15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-38,78; 142,9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-28,41; 193,94</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,47</t>
+          <t>-5,5; 5,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,04</t>
+          <t>-5,95; 4,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 7,09</t>
+          <t>-4,11; 7,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 4,75</t>
+          <t>-5,96; 9,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,3</t>
+          <t>-7,37; 7,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 2,56</t>
+          <t>-4,54; 11,73</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 5,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 3,57</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 7,56</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,9%</t>
+          <t>-18,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,62%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,25%</t>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-9,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,73; 137,16</t>
+          <t>-61,58; 154,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,17; 94,83</t>
+          <t>-65,6; 128,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 56,06</t>
+          <t>-49,55; 198,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 38,31</t>
+          <t>-29,97; 75,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 47,92</t>
+          <t>-37,1; 61,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 29,52</t>
+          <t>-22,4; 91,89</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-29,87; 62,63</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-41,1; 39,85</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-18,15; 85,76</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>8,93</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,48</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,57</t>
+          <t>-6,41; 4,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,73</t>
+          <t>-4,68; 7,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 12,96</t>
+          <t>-2,63; 10,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 9,78</t>
+          <t>0,21; 13,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,62</t>
+          <t>-3,25; 8,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,86</t>
+          <t>1,69; 15,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 8,21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 6,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 12,12</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>-13,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>51,08%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>122,1%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53,66%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32,81%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>98,66%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,86; 147,9</t>
+          <t>-77,55; 172,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 196,35</t>
+          <t>-56,72; 269,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 190,7</t>
+          <t>-37,08; 355,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 150,3</t>
+          <t>-0,56; 303,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 132,67</t>
+          <t>-32,31; 194,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 96,61</t>
+          <t>8,92; 321,22</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-12,36; 179,16</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,15; 147,03</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21,8; 255,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 7,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 90,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 85,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 62,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 33,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 57,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 33,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 3,89</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 4,51</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 8,97</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 10,46</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 5,79</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 10,73</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 6,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 4,07</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 8,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12,12%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>64,31%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>43,23%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>43,29%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>28,25%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>47,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-47,98; 81,84</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-37,05; 93,77</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 181,85</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 92,95</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-23,0; 52,9</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 97,54</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 73,23</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-21,94; 47,49</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>10,98; 92,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
